--- a/Code/Results/Cases/Case_3_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_147/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.80043997628969</v>
+        <v>17.21775304652755</v>
       </c>
       <c r="C2">
-        <v>18.14217148136701</v>
+        <v>10.62617579077557</v>
       </c>
       <c r="D2">
-        <v>8.135148176598706</v>
+        <v>10.14942889989638</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.42513465688264</v>
+        <v>35.01327426648118</v>
       </c>
       <c r="G2">
-        <v>35.65253146137057</v>
+        <v>37.32858048598642</v>
       </c>
       <c r="H2">
-        <v>10.90143035782255</v>
+        <v>16.10441953963667</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.308511075891756</v>
+        <v>11.36244832300683</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.08472812232493</v>
+        <v>16.58010510137931</v>
       </c>
       <c r="C3">
-        <v>16.92914501238995</v>
+        <v>10.03089661990075</v>
       </c>
       <c r="D3">
-        <v>7.732571486510702</v>
+        <v>10.08169941356973</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.32163106128822</v>
+        <v>34.97795082101561</v>
       </c>
       <c r="G3">
-        <v>34.06411858057392</v>
+        <v>37.21939539257713</v>
       </c>
       <c r="H3">
-        <v>10.77955040133622</v>
+        <v>16.1599607247745</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.024333352626408</v>
+        <v>11.34755719444668</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.97334362664901</v>
+        <v>16.17867488694446</v>
       </c>
       <c r="C4">
-        <v>16.14376917134568</v>
+        <v>9.64733113309331</v>
       </c>
       <c r="D4">
-        <v>7.478082409469875</v>
+        <v>10.04126599446695</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.66903364050768</v>
+        <v>34.96957913573306</v>
       </c>
       <c r="G4">
-        <v>33.12370325659562</v>
+        <v>37.17127819777872</v>
       </c>
       <c r="H4">
-        <v>10.72008255142221</v>
+        <v>16.19873762506283</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.852000582642465</v>
+        <v>11.34086337318876</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.50570723612422</v>
+        <v>16.01285094746814</v>
       </c>
       <c r="C5">
-        <v>15.81342636948415</v>
+        <v>9.486613407096938</v>
       </c>
       <c r="D5">
-        <v>7.372640292536927</v>
+        <v>10.02509108268767</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.40952584206074</v>
+        <v>34.96950663612429</v>
       </c>
       <c r="G5">
-        <v>32.74955997927396</v>
+        <v>37.15642059558814</v>
       </c>
       <c r="H5">
-        <v>10.69953010066195</v>
+        <v>16.21570824189579</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.782373568733575</v>
+        <v>11.33875264070446</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.42716155809885</v>
+        <v>15.98518878661125</v>
       </c>
       <c r="C6">
-        <v>15.75794884991191</v>
+        <v>9.459664236040126</v>
       </c>
       <c r="D6">
-        <v>7.355030256741102</v>
+        <v>10.02242383969566</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.36682775888276</v>
+        <v>34.96969591063399</v>
       </c>
       <c r="G6">
-        <v>32.68799182924614</v>
+        <v>37.15424002460661</v>
       </c>
       <c r="H6">
-        <v>10.69633424977271</v>
+        <v>16.21859658777038</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.770850130533457</v>
+        <v>11.33843944795332</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.96709681437465</v>
+        <v>16.17644723327676</v>
       </c>
       <c r="C7">
-        <v>16.13935585549402</v>
+        <v>9.645181308535227</v>
       </c>
       <c r="D7">
-        <v>7.476667258576371</v>
+        <v>10.04104661528386</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.66550758135643</v>
+        <v>34.96956465412765</v>
       </c>
       <c r="G7">
-        <v>33.11862022422001</v>
+        <v>37.17105860518432</v>
       </c>
       <c r="H7">
-        <v>10.71979071509508</v>
+        <v>16.19896177374813</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.851059056835378</v>
+        <v>11.34083240752874</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.2207804582274</v>
+        <v>17.0000940692001</v>
       </c>
       <c r="C8">
-        <v>17.7322809417221</v>
+        <v>10.42474225432597</v>
       </c>
       <c r="D8">
-        <v>7.997910075303462</v>
+        <v>10.12584394486136</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.03955655114628</v>
+        <v>34.99832612826383</v>
       </c>
       <c r="G8">
-        <v>35.09778820317153</v>
+        <v>37.2870040289361</v>
       </c>
       <c r="H8">
-        <v>10.85610860754919</v>
+        <v>16.12259600168883</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.210112357421101</v>
+        <v>11.35680630280972</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.18876153175472</v>
+        <v>18.52671480346259</v>
       </c>
       <c r="C9">
-        <v>20.53890312480593</v>
+        <v>11.80566606097868</v>
       </c>
       <c r="D9">
-        <v>8.958739727979035</v>
+        <v>10.30072531187987</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.9263261223816</v>
+        <v>35.16064503159132</v>
       </c>
       <c r="G9">
-        <v>39.2440977401557</v>
+        <v>37.66443542855507</v>
       </c>
       <c r="H9">
-        <v>11.25321472752025</v>
+        <v>16.0102230939921</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.929207394347831</v>
+        <v>11.40749777458103</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.84094231197279</v>
+        <v>19.58279255521713</v>
       </c>
       <c r="C10">
-        <v>22.41521414323436</v>
+        <v>12.72553429061923</v>
       </c>
       <c r="D10">
-        <v>9.624209791907399</v>
+        <v>10.43368719165996</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.15975169037183</v>
+        <v>35.34455726222715</v>
       </c>
       <c r="G10">
-        <v>42.44218685105389</v>
+        <v>38.03249598078146</v>
       </c>
       <c r="H10">
-        <v>11.63446434656961</v>
+        <v>15.9508354463642</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.464749013178599</v>
+        <v>11.45642944260745</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.99329309225648</v>
+        <v>20.04701465424175</v>
       </c>
       <c r="C11">
-        <v>23.23039978213841</v>
+        <v>13.12279261295815</v>
       </c>
       <c r="D11">
-        <v>9.91789444710008</v>
+        <v>10.49497892194639</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.20042786178733</v>
+        <v>35.44219757500872</v>
       </c>
       <c r="G11">
-        <v>43.93005736957604</v>
+        <v>38.21930546113298</v>
       </c>
       <c r="H11">
-        <v>11.8294997631651</v>
+        <v>15.9289276326083</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.709838715054035</v>
+        <v>11.48119320955718</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.42214019024995</v>
+        <v>20.22033688092132</v>
       </c>
       <c r="C12">
-        <v>23.53375367654752</v>
+        <v>13.27013747898108</v>
       </c>
       <c r="D12">
-        <v>10.02780460188607</v>
+        <v>10.51829002458448</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.59817079116429</v>
+        <v>35.48116933234974</v>
       </c>
       <c r="G12">
-        <v>44.49839692748105</v>
+        <v>38.29279038115479</v>
       </c>
       <c r="H12">
-        <v>11.90664003161325</v>
+        <v>15.92137214854584</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.802871937264792</v>
+        <v>11.49092702879948</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.3301104393952</v>
+        <v>20.18312066565702</v>
       </c>
       <c r="C13">
-        <v>23.46865542290879</v>
+        <v>13.23854201924398</v>
       </c>
       <c r="D13">
-        <v>10.00419123646202</v>
+        <v>10.51326529414876</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.51234408544185</v>
+        <v>35.47268746944977</v>
       </c>
       <c r="G13">
-        <v>44.37577199251689</v>
+        <v>38.27684279452907</v>
       </c>
       <c r="H13">
-        <v>11.88987750354651</v>
+        <v>15.92296632939992</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.782825250562093</v>
+        <v>11.48881489503322</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.02872378360411</v>
+        <v>20.06132418966935</v>
       </c>
       <c r="C14">
-        <v>23.25546281241391</v>
+        <v>13.13497685447766</v>
       </c>
       <c r="D14">
-        <v>9.926962864279021</v>
+        <v>10.49689479594738</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.23307605023181</v>
+        <v>35.44536385799763</v>
       </c>
       <c r="G14">
-        <v>43.97671501936624</v>
+        <v>38.22529638120464</v>
       </c>
       <c r="H14">
-        <v>11.83577926801195</v>
+        <v>15.92829116370057</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.71748800662613</v>
+        <v>11.48198689909511</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.84314423244744</v>
+        <v>19.98639500363154</v>
       </c>
       <c r="C15">
-        <v>23.12418644101093</v>
+        <v>13.07113698404804</v>
       </c>
       <c r="D15">
-        <v>9.879488945661624</v>
+        <v>10.48688013989404</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.06249808642605</v>
+        <v>35.42888705031172</v>
       </c>
       <c r="G15">
-        <v>43.73292865329174</v>
+        <v>38.19407870606314</v>
       </c>
       <c r="H15">
-        <v>11.80307568046181</v>
+        <v>15.9316493906202</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.677496789924225</v>
+        <v>11.47785083631217</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.76456588904453</v>
+        <v>19.55211630463256</v>
       </c>
       <c r="C16">
-        <v>22.36118263741829</v>
+        <v>12.69914235017264</v>
       </c>
       <c r="D16">
-        <v>9.604834354060195</v>
+        <v>10.42969660781963</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.09224519741472</v>
+        <v>35.33845652953039</v>
       </c>
       <c r="G16">
-        <v>42.34562653671383</v>
+        <v>38.02067403578923</v>
       </c>
       <c r="H16">
-        <v>11.6221681286347</v>
+        <v>15.95237047917272</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.448761962128282</v>
+        <v>11.45486115246584</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.08920535240297</v>
+        <v>19.28144732807357</v>
       </c>
       <c r="C17">
-        <v>21.88339973943646</v>
+        <v>12.46547526697869</v>
       </c>
       <c r="D17">
-        <v>9.434020554609912</v>
+        <v>10.39481252529446</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.50339902602052</v>
+        <v>35.28655275278915</v>
       </c>
       <c r="G17">
-        <v>41.50309497476648</v>
+        <v>37.91923136440791</v>
       </c>
       <c r="H17">
-        <v>11.51684539547161</v>
+        <v>15.96639483327751</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.308819276814114</v>
+        <v>11.44139661140547</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.69564290492604</v>
+        <v>19.12424865722585</v>
       </c>
       <c r="C18">
-        <v>21.60496956992818</v>
+        <v>12.32908294987729</v>
       </c>
       <c r="D18">
-        <v>9.334921045407855</v>
+        <v>10.37482494651657</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.16702129031108</v>
+        <v>35.25801572773785</v>
       </c>
       <c r="G18">
-        <v>41.02158492517137</v>
+        <v>37.86271112056648</v>
       </c>
       <c r="H18">
-        <v>11.45828912049253</v>
+        <v>15.97494171174586</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.228464402432881</v>
+        <v>11.43388815764789</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.56150368654596</v>
+        <v>19.07076791190377</v>
       </c>
       <c r="C19">
-        <v>21.51007073865438</v>
+        <v>12.2825619211763</v>
       </c>
       <c r="D19">
-        <v>9.301221657622692</v>
+        <v>10.36807113757122</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.05352454367558</v>
+        <v>35.24858003265008</v>
       </c>
       <c r="G19">
-        <v>40.85908234096743</v>
+        <v>37.84388925985628</v>
       </c>
       <c r="H19">
-        <v>11.43880500960019</v>
+        <v>15.97791786583137</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.201281008539322</v>
+        <v>11.43138656559599</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.16162598387941</v>
+        <v>19.31041858374797</v>
       </c>
       <c r="C20">
-        <v>21.9346341997567</v>
+        <v>12.49055613912662</v>
       </c>
       <c r="D20">
-        <v>9.452292211576124</v>
+        <v>10.39851815102615</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.56584300410936</v>
+        <v>35.29194180781904</v>
       </c>
       <c r="G20">
-        <v>41.59246319504995</v>
+        <v>37.92984131317333</v>
       </c>
       <c r="H20">
-        <v>11.52784657949871</v>
+        <v>15.96485214869824</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.323702267032102</v>
+        <v>11.44280553659846</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.11745030999719</v>
+        <v>20.09716678948719</v>
       </c>
       <c r="C21">
-        <v>23.31822604762046</v>
+        <v>13.1654805428372</v>
       </c>
       <c r="D21">
-        <v>9.94968197350414</v>
+        <v>10.50170057813413</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.31500310529253</v>
+        <v>35.45333537302039</v>
       </c>
       <c r="G21">
-        <v>44.09379226802461</v>
+        <v>38.24036271032733</v>
       </c>
       <c r="H21">
-        <v>11.85157863654149</v>
+        <v>15.92670698658996</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.736672894139861</v>
+        <v>11.48398280936997</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.35198487761954</v>
+        <v>20.59691094339506</v>
       </c>
       <c r="C22">
-        <v>24.19145921751113</v>
+        <v>13.58856970242283</v>
       </c>
       <c r="D22">
-        <v>10.26717758957948</v>
+        <v>10.5697195459658</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.47964459012887</v>
+        <v>35.57044970889501</v>
       </c>
       <c r="G22">
-        <v>45.76482111360406</v>
+        <v>38.4592767534101</v>
       </c>
       <c r="H22">
-        <v>12.08238986696602</v>
+        <v>15.90609586332804</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.00789310095566</v>
+        <v>11.51296934276097</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.69699650234136</v>
+        <v>20.33155106134323</v>
       </c>
       <c r="C23">
-        <v>23.72817322014078</v>
+        <v>13.36441820959041</v>
       </c>
       <c r="D23">
-        <v>10.09841384979725</v>
+        <v>10.53336806849903</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.85602711767456</v>
+        <v>35.50688419559199</v>
       </c>
       <c r="G23">
-        <v>44.86676508879724</v>
+        <v>38.3409928827153</v>
       </c>
       <c r="H23">
-        <v>11.95738087089149</v>
+        <v>15.91669931575737</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.863007924289933</v>
+        <v>11.49731021926088</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.12890110891714</v>
+        <v>19.29732561284339</v>
       </c>
       <c r="C24">
-        <v>21.91148278257755</v>
+        <v>12.47922347147658</v>
       </c>
       <c r="D24">
-        <v>9.444034387146443</v>
+        <v>10.39684262550825</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.5376053678516</v>
+        <v>35.2895013559296</v>
       </c>
       <c r="G24">
-        <v>41.55205088556902</v>
+        <v>37.92503894385061</v>
       </c>
       <c r="H24">
-        <v>11.52286674306999</v>
+        <v>15.96554808891858</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.316973356180428</v>
+        <v>11.44216783706887</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.16245036338917</v>
+        <v>18.12448618113602</v>
       </c>
       <c r="C25">
-        <v>19.81285084877715</v>
+        <v>11.44845333034509</v>
       </c>
       <c r="D25">
-        <v>8.705763077157401</v>
+        <v>10.25257270305261</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.1254560314404</v>
+        <v>35.10536944247706</v>
       </c>
       <c r="G25">
-        <v>38.09536486554206</v>
+        <v>37.5463043195746</v>
       </c>
       <c r="H25">
-        <v>11.13080392109158</v>
+        <v>16.03658046637058</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.733314326322599</v>
+        <v>11.3917213576581</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_147/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.21775304652755</v>
+        <v>24.80043997628971</v>
       </c>
       <c r="C2">
-        <v>10.62617579077557</v>
+        <v>18.142171481367</v>
       </c>
       <c r="D2">
-        <v>10.14942889989638</v>
+        <v>8.135148176598653</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.01327426648118</v>
+        <v>29.42513465688261</v>
       </c>
       <c r="G2">
-        <v>37.32858048598642</v>
+        <v>35.65253146137054</v>
       </c>
       <c r="H2">
-        <v>16.10441953963667</v>
+        <v>10.90143035782251</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.36244832300683</v>
+        <v>8.30851107589177</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.58010510137931</v>
+        <v>23.08472812232493</v>
       </c>
       <c r="C3">
-        <v>10.03089661990075</v>
+        <v>16.92914501239008</v>
       </c>
       <c r="D3">
-        <v>10.08169941356973</v>
+        <v>7.732571486510754</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.97795082101561</v>
+        <v>28.32163106128813</v>
       </c>
       <c r="G3">
-        <v>37.21939539257713</v>
+        <v>34.06411858057375</v>
       </c>
       <c r="H3">
-        <v>16.1599607247745</v>
+        <v>10.77955040133624</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.34755719444668</v>
+        <v>8.024333352626357</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.17867488694446</v>
+        <v>21.97334362664901</v>
       </c>
       <c r="C4">
-        <v>9.64733113309331</v>
+        <v>16.14376917134571</v>
       </c>
       <c r="D4">
-        <v>10.04126599446695</v>
+        <v>7.478082409469859</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.96957913573306</v>
+        <v>27.66903364050767</v>
       </c>
       <c r="G4">
-        <v>37.17127819777872</v>
+        <v>33.12370325659563</v>
       </c>
       <c r="H4">
-        <v>16.19873762506283</v>
+        <v>10.72008255142217</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.34086337318876</v>
+        <v>7.8520005826425</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.01285094746814</v>
+        <v>21.50570723612418</v>
       </c>
       <c r="C5">
-        <v>9.486613407096938</v>
+        <v>15.81342636948423</v>
       </c>
       <c r="D5">
-        <v>10.02509108268767</v>
+        <v>7.372640292536921</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.96950663612429</v>
+        <v>27.4095258420608</v>
       </c>
       <c r="G5">
-        <v>37.15642059558814</v>
+        <v>32.74955997927401</v>
       </c>
       <c r="H5">
-        <v>16.21570824189579</v>
+        <v>10.69953010066202</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.33875264070446</v>
+        <v>7.78237356873354</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.98518878661125</v>
+        <v>21.42716155809881</v>
       </c>
       <c r="C6">
-        <v>9.459664236040126</v>
+        <v>15.75794884991181</v>
       </c>
       <c r="D6">
-        <v>10.02242383969566</v>
+        <v>7.355030256740898</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.96969591063399</v>
+        <v>27.36682775888272</v>
       </c>
       <c r="G6">
-        <v>37.15424002460661</v>
+        <v>32.68799182924641</v>
       </c>
       <c r="H6">
-        <v>16.21859658777038</v>
+        <v>10.69633424977268</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.33843944795332</v>
+        <v>7.770850130533511</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.17644723327676</v>
+        <v>21.96709681437471</v>
       </c>
       <c r="C7">
-        <v>9.645181308535227</v>
+        <v>16.13935585549395</v>
       </c>
       <c r="D7">
-        <v>10.04104661528386</v>
+        <v>7.476667258576378</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.96956465412765</v>
+        <v>27.6655075813563</v>
       </c>
       <c r="G7">
-        <v>37.17105860518432</v>
+        <v>33.11862022421973</v>
       </c>
       <c r="H7">
-        <v>16.19896177374813</v>
+        <v>10.71979071509504</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.34083240752874</v>
+        <v>7.85105905683542</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.0000940692001</v>
+        <v>24.22078045822738</v>
       </c>
       <c r="C8">
-        <v>10.42474225432597</v>
+        <v>17.73228094172216</v>
       </c>
       <c r="D8">
-        <v>10.12584394486136</v>
+        <v>7.997910075303443</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.99832612826383</v>
+        <v>29.03955655114621</v>
       </c>
       <c r="G8">
-        <v>37.2870040289361</v>
+        <v>35.0977882031714</v>
       </c>
       <c r="H8">
-        <v>16.12259600168883</v>
+        <v>10.85610860754917</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.35680630280972</v>
+        <v>8.210112357421124</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.52671480346259</v>
+        <v>28.18876153175475</v>
       </c>
       <c r="C9">
-        <v>11.80566606097868</v>
+        <v>20.538903124806</v>
       </c>
       <c r="D9">
-        <v>10.30072531187987</v>
+        <v>8.958739727979047</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.16064503159132</v>
+        <v>31.92632612238168</v>
       </c>
       <c r="G9">
-        <v>37.66443542855507</v>
+        <v>39.24409774015582</v>
       </c>
       <c r="H9">
-        <v>16.0102230939921</v>
+        <v>11.25321472752026</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.40749777458103</v>
+        <v>8.929207394347833</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.58279255521713</v>
+        <v>30.84094231197292</v>
       </c>
       <c r="C10">
-        <v>12.72553429061923</v>
+        <v>22.41521414323433</v>
       </c>
       <c r="D10">
-        <v>10.43368719165996</v>
+        <v>9.624209791907413</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.34455726222715</v>
+        <v>34.15975169037188</v>
       </c>
       <c r="G10">
-        <v>38.03249598078146</v>
+        <v>42.44218685105404</v>
       </c>
       <c r="H10">
-        <v>15.9508354463642</v>
+        <v>11.63446434656961</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.45642944260745</v>
+        <v>9.464749013178587</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.04701465424175</v>
+        <v>31.99329309225649</v>
       </c>
       <c r="C11">
-        <v>13.12279261295815</v>
+        <v>23.23039978213835</v>
       </c>
       <c r="D11">
-        <v>10.49497892194639</v>
+        <v>9.917894447100089</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.44219757500872</v>
+        <v>35.20042786178742</v>
       </c>
       <c r="G11">
-        <v>38.21930546113298</v>
+        <v>43.93005736957614</v>
       </c>
       <c r="H11">
-        <v>15.9289276326083</v>
+        <v>11.82949976316515</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.48119320955718</v>
+        <v>9.709838715054033</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.22033688092132</v>
+        <v>32.42214019025002</v>
       </c>
       <c r="C12">
-        <v>13.27013747898108</v>
+        <v>23.53375367654754</v>
       </c>
       <c r="D12">
-        <v>10.51829002458448</v>
+        <v>10.02780460188603</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.48116933234974</v>
+        <v>35.59817079116433</v>
       </c>
       <c r="G12">
-        <v>38.29279038115479</v>
+        <v>44.49839692748116</v>
       </c>
       <c r="H12">
-        <v>15.92137214854584</v>
+        <v>11.90664003161328</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.49092702879948</v>
+        <v>9.802871937264785</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.18312066565702</v>
+        <v>32.33011043939519</v>
       </c>
       <c r="C13">
-        <v>13.23854201924398</v>
+        <v>23.4686554229088</v>
       </c>
       <c r="D13">
-        <v>10.51326529414876</v>
+        <v>10.004191236462</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.47268746944977</v>
+        <v>35.51234408544176</v>
       </c>
       <c r="G13">
-        <v>38.27684279452907</v>
+        <v>44.37577199251677</v>
       </c>
       <c r="H13">
-        <v>15.92296632939992</v>
+        <v>11.88987750354651</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.48881489503322</v>
+        <v>9.782825250562103</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.06132418966935</v>
+        <v>32.02872378360407</v>
       </c>
       <c r="C14">
-        <v>13.13497685447766</v>
+        <v>23.25546281241389</v>
       </c>
       <c r="D14">
-        <v>10.49689479594738</v>
+        <v>9.926962864279027</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.44536385799763</v>
+        <v>35.23307605023185</v>
       </c>
       <c r="G14">
-        <v>38.22529638120464</v>
+        <v>43.97671501936634</v>
       </c>
       <c r="H14">
-        <v>15.92829116370057</v>
+        <v>11.83577926801192</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.48198689909511</v>
+        <v>9.717488006626107</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.98639500363154</v>
+        <v>31.84314423244741</v>
       </c>
       <c r="C15">
-        <v>13.07113698404804</v>
+        <v>23.12418644101101</v>
       </c>
       <c r="D15">
-        <v>10.48688013989404</v>
+        <v>9.87948894566164</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.42888705031172</v>
+        <v>35.06249808642604</v>
       </c>
       <c r="G15">
-        <v>38.19407870606314</v>
+        <v>43.73292865329177</v>
       </c>
       <c r="H15">
-        <v>15.9316493906202</v>
+        <v>11.8030756804618</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.47785083631217</v>
+        <v>9.677496789924238</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.55211630463256</v>
+        <v>30.76456588904452</v>
       </c>
       <c r="C16">
-        <v>12.69914235017264</v>
+        <v>22.36118263741838</v>
       </c>
       <c r="D16">
-        <v>10.42969660781963</v>
+        <v>9.604834354060152</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.33845652953039</v>
+        <v>34.09224519741465</v>
       </c>
       <c r="G16">
-        <v>38.02067403578923</v>
+        <v>42.34562653671375</v>
       </c>
       <c r="H16">
-        <v>15.95237047917272</v>
+        <v>11.62216812863465</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.45486115246584</v>
+        <v>9.448761962128295</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.28144732807357</v>
+        <v>30.08920535240313</v>
       </c>
       <c r="C17">
-        <v>12.46547526697869</v>
+        <v>21.88339973943649</v>
       </c>
       <c r="D17">
-        <v>10.39481252529446</v>
+        <v>9.434020554609898</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.28655275278915</v>
+        <v>33.50339902602064</v>
       </c>
       <c r="G17">
-        <v>37.91923136440791</v>
+        <v>41.5030949747668</v>
       </c>
       <c r="H17">
-        <v>15.96639483327751</v>
+        <v>11.51684539547168</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.44139661140547</v>
+        <v>9.308819276814084</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.12424865722585</v>
+        <v>29.6956429049261</v>
       </c>
       <c r="C18">
-        <v>12.32908294987729</v>
+        <v>21.60496956992824</v>
       </c>
       <c r="D18">
-        <v>10.37482494651657</v>
+        <v>9.334921045407825</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.25801572773785</v>
+        <v>33.16702129031109</v>
       </c>
       <c r="G18">
-        <v>37.86271112056648</v>
+        <v>41.02158492517145</v>
       </c>
       <c r="H18">
-        <v>15.97494171174586</v>
+        <v>11.45828912049252</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.43388815764789</v>
+        <v>9.228464402432921</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.07076791190377</v>
+        <v>29.56150368654599</v>
       </c>
       <c r="C19">
-        <v>12.2825619211763</v>
+        <v>21.51007073865421</v>
       </c>
       <c r="D19">
-        <v>10.36807113757122</v>
+        <v>9.301221657622721</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.24858003265008</v>
+        <v>33.05352454367559</v>
       </c>
       <c r="G19">
-        <v>37.84388925985628</v>
+        <v>40.85908234096738</v>
       </c>
       <c r="H19">
-        <v>15.97791786583137</v>
+        <v>11.43880500960024</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.43138656559599</v>
+        <v>9.201281008539299</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.31041858374797</v>
+        <v>30.16162598387942</v>
       </c>
       <c r="C20">
-        <v>12.49055613912662</v>
+        <v>21.93463419975667</v>
       </c>
       <c r="D20">
-        <v>10.39851815102615</v>
+        <v>9.452292211576106</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.29194180781904</v>
+        <v>33.56584300410936</v>
       </c>
       <c r="G20">
-        <v>37.92984131317333</v>
+        <v>41.59246319504995</v>
       </c>
       <c r="H20">
-        <v>15.96485214869824</v>
+        <v>11.52784657949877</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.44280553659846</v>
+        <v>9.323702267032075</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.09716678948719</v>
+        <v>32.11745030999717</v>
       </c>
       <c r="C21">
-        <v>13.1654805428372</v>
+        <v>23.3182260476204</v>
       </c>
       <c r="D21">
-        <v>10.50170057813413</v>
+        <v>9.949681973504108</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.45333537302039</v>
+        <v>35.31500310529255</v>
       </c>
       <c r="G21">
-        <v>38.24036271032733</v>
+        <v>44.09379226802464</v>
       </c>
       <c r="H21">
-        <v>15.92670698658996</v>
+        <v>11.85157863654149</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.48398280936997</v>
+        <v>9.736672894139884</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.59691094339506</v>
+        <v>33.35198487761961</v>
       </c>
       <c r="C22">
-        <v>13.58856970242283</v>
+        <v>24.1914592175112</v>
       </c>
       <c r="D22">
-        <v>10.5697195459658</v>
+        <v>10.26717758957946</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.57044970889501</v>
+        <v>36.47964459012888</v>
       </c>
       <c r="G22">
-        <v>38.4592767534101</v>
+        <v>45.76482111360416</v>
       </c>
       <c r="H22">
-        <v>15.90609586332804</v>
+        <v>12.08238986696598</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.51296934276097</v>
+        <v>10.00789310095568</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.33155106134323</v>
+        <v>32.69699650234128</v>
       </c>
       <c r="C23">
-        <v>13.36441820959041</v>
+        <v>23.72817322014076</v>
       </c>
       <c r="D23">
-        <v>10.53336806849903</v>
+        <v>10.09841384979728</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.50688419559199</v>
+        <v>35.85602711767459</v>
       </c>
       <c r="G23">
-        <v>38.3409928827153</v>
+        <v>44.86676508879711</v>
       </c>
       <c r="H23">
-        <v>15.91669931575737</v>
+        <v>11.95738087089157</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.49731021926088</v>
+        <v>9.86300792428991</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.29732561284339</v>
+        <v>30.12890110891709</v>
       </c>
       <c r="C24">
-        <v>12.47922347147658</v>
+        <v>21.91148278257768</v>
       </c>
       <c r="D24">
-        <v>10.39684262550825</v>
+        <v>9.444034387146425</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.2895013559296</v>
+        <v>33.53760536785153</v>
       </c>
       <c r="G24">
-        <v>37.92503894385061</v>
+        <v>41.55205088556887</v>
       </c>
       <c r="H24">
-        <v>15.96554808891858</v>
+        <v>11.52286674306998</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.44216783706887</v>
+        <v>9.316973356180398</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.12448618113602</v>
+        <v>27.16245036338921</v>
       </c>
       <c r="C25">
-        <v>11.44845333034509</v>
+        <v>19.81285084877724</v>
       </c>
       <c r="D25">
-        <v>10.25257270305261</v>
+        <v>8.705763077157329</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.10536944247706</v>
+        <v>31.12545603144037</v>
       </c>
       <c r="G25">
-        <v>37.5463043195746</v>
+        <v>38.09536486554212</v>
       </c>
       <c r="H25">
-        <v>16.03658046637058</v>
+        <v>11.1308039210915</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.3917213576581</v>
+        <v>8.733314326322606</v>
       </c>
       <c r="K25">
         <v>0</v>
